--- a/AAII_Financials/Yearly/PPBT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PPBT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>PPBT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -886,8 +886,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1044,8 +1044,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1098,8 +1098,8 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>-15300</v>
       </c>
       <c r="F89" s="3">
-        <v>-12100</v>
+        <v>-13800</v>
       </c>
       <c r="G89" s="3">
         <v>-5600</v>
@@ -3001,7 +3001,7 @@
         <v>-400</v>
       </c>
       <c r="F102" s="3">
-        <v>6900</v>
+        <v>5200</v>
       </c>
       <c r="G102" s="3">
         <v>-800</v>

--- a/AAII_Financials/Yearly/PPBT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PPBT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>PPBT</t>
   </si>
@@ -812,7 +812,7 @@
         <v>11800</v>
       </c>
       <c r="F12" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="G12" s="3">
         <v>2700</v>
@@ -930,7 +930,7 @@
         <v>17900</v>
       </c>
       <c r="F17" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="G17" s="3">
         <v>8200</v>
@@ -957,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="3">
-        <v>-12600</v>
+        <v>-12200</v>
       </c>
       <c r="G18" s="3">
         <v>-7200</v>
@@ -997,7 +997,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>-15400</v>
+        <v>-16400</v>
       </c>
       <c r="G20" s="3">
         <v>1600</v>
@@ -1024,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>-27800</v>
+        <v>-28400</v>
       </c>
       <c r="G21" s="3">
         <v>-5400</v>
@@ -1078,7 +1078,7 @@
         <v>-17800</v>
       </c>
       <c r="F23" s="3">
-        <v>-28100</v>
+        <v>-28700</v>
       </c>
       <c r="G23" s="3">
         <v>-5700</v>
@@ -1159,7 +1159,7 @@
         <v>-17800</v>
       </c>
       <c r="F26" s="3">
-        <v>-28100</v>
+        <v>-28700</v>
       </c>
       <c r="G26" s="3">
         <v>-5900</v>
@@ -1186,7 +1186,7 @@
         <v>-17700</v>
       </c>
       <c r="F27" s="3">
-        <v>-28000</v>
+        <v>-28600</v>
       </c>
       <c r="G27" s="3">
         <v>-5900</v>
@@ -1239,8 +1239,8 @@
       <c r="E29" s="3">
         <v>-600</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+      <c r="F29" s="3">
+        <v>600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1321,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="3">
-        <v>15400</v>
+        <v>16400</v>
       </c>
       <c r="G32" s="3">
         <v>-1600</v>
